--- a/data/trans_dic/P16A12-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Dificultad-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para la diabetes en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1391,7 +1391,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para la diabetes en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A12-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.09631616361003202</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.08915539173934596</v>
+        <v>0.08915539173934597</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.08266663291065179</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05566593904039801</v>
+        <v>0.05489269557011078</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05857315815433405</v>
+        <v>0.05640576590980566</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08035479664811453</v>
+        <v>0.08037797694336007</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06684505237824853</v>
+        <v>0.06633248371029431</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06522459497399269</v>
+        <v>0.06428645667469178</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08317193186060877</v>
+        <v>0.08442487030437813</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07247851714222135</v>
+        <v>0.07428501340499824</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08853908126737621</v>
+        <v>0.08817795625889761</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06752461133867148</v>
+        <v>0.06598062333629647</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07585315965732503</v>
+        <v>0.07504348009696425</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.07964503953030301</v>
+        <v>0.08107072442855201</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.08397226319595338</v>
+        <v>0.08491516297456313</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09850498325551856</v>
+        <v>0.09620165517072862</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09142011928560832</v>
+        <v>0.09038547100417299</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1161229630782148</v>
+        <v>0.115020482306104</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1168717824869284</v>
+        <v>0.1154407539217784</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1003601685560429</v>
+        <v>0.1015443660579111</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1197477865271707</v>
+        <v>0.1200150210770949</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1064688794848975</v>
+        <v>0.1100445177092906</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1262586722040332</v>
+        <v>0.1282909463759202</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.09609835349962847</v>
+        <v>0.09370478780948044</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.09997576840596731</v>
+        <v>0.09921579302773836</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1056097173415863</v>
+        <v>0.1054708230654466</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.114206441386878</v>
+        <v>0.1151144789924024</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.08692184549916113</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08733814790530217</v>
+        <v>0.08733814790530216</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.0557196048607207</v>
@@ -821,7 +821,7 @@
         <v>0.07892582082472561</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.08503219030316325</v>
+        <v>0.08503219030316324</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.05806703474011686</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04780094133122756</v>
+        <v>0.04818533252731658</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05101331815071715</v>
+        <v>0.0499376894906864</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06932909607951325</v>
+        <v>0.06975967321187689</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07148200896946458</v>
+        <v>0.07314456270489594</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04291817944304575</v>
+        <v>0.04259700456616414</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07802711702516232</v>
+        <v>0.07697799978898998</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06251976929935282</v>
+        <v>0.06213351255250579</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07394249438442156</v>
+        <v>0.07365684518879811</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04841417295531077</v>
+        <v>0.04827977816399394</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06930459656540761</v>
+        <v>0.0680810671412793</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07027056877999426</v>
+        <v>0.07123531996039413</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07582366813621773</v>
+        <v>0.07664956498433029</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07606235663305826</v>
+        <v>0.07587764995462655</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08568933778578053</v>
+        <v>0.08487256730479013</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1057395566242786</v>
+        <v>0.1085911478745731</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1046492991774863</v>
+        <v>0.1045400398031135</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0726248807159504</v>
+        <v>0.07062215537908821</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1120923529548766</v>
+        <v>0.1122612313757472</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09829688169902497</v>
+        <v>0.09882500762752365</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09811466343567618</v>
+        <v>0.09774339104364223</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06821648888558078</v>
+        <v>0.06871137253024907</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09479984089409482</v>
+        <v>0.09461602220261153</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.09563784957968222</v>
+        <v>0.09691338980247775</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09628569651967919</v>
+        <v>0.09679161371243904</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.07180610681087939</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.07650705480544591</v>
+        <v>0.07650705480544594</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02995203408948626</v>
+        <v>0.03138944970345733</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06308697055034461</v>
+        <v>0.06313697380650846</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04979035810548735</v>
+        <v>0.05031648425272364</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08024907781195675</v>
+        <v>0.08000003091673945</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0384626943270398</v>
+        <v>0.03881999822019996</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05282895546690844</v>
+        <v>0.05080080176730319</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06045315589395477</v>
+        <v>0.06101350752262759</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04830069965788298</v>
+        <v>0.04859927798281308</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03720916688312592</v>
+        <v>0.03680229336703286</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06143473452326069</v>
+        <v>0.06287249979266554</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05986965361956166</v>
+        <v>0.05808933246663561</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06676027099267613</v>
+        <v>0.0671768376209684</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05447338823621733</v>
+        <v>0.05332154095141545</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1015167077898842</v>
+        <v>0.1017141680688027</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08468633628279584</v>
+        <v>0.08375908353497988</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1127795262052309</v>
+        <v>0.1136722927905608</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06884429994536878</v>
+        <v>0.06671299333215663</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08818839847476423</v>
+        <v>0.08401339863988161</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.101656646003855</v>
+        <v>0.1022951802176678</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06969810905089578</v>
+        <v>0.07014145246239439</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05556940986318797</v>
+        <v>0.05586029126951893</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.08751615099790777</v>
+        <v>0.08873275319010486</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.08703465179663764</v>
+        <v>0.08559505727283535</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08626259562926611</v>
+        <v>0.08719688944643116</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02781417342347505</v>
+        <v>0.02728262519879397</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05043033713602845</v>
+        <v>0.04931300948003627</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05414727463719263</v>
+        <v>0.05440838947991822</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06205722830685878</v>
+        <v>0.06295395675995583</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01549376401189633</v>
+        <v>0.01546153090472934</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03928391209554245</v>
+        <v>0.03653481520455996</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02933362187856005</v>
+        <v>0.0281311887047863</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04497813560500248</v>
+        <v>0.04574789797573781</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0259742155606072</v>
+        <v>0.02622702302684385</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04963449407331886</v>
+        <v>0.05124925336509995</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04527510010316851</v>
+        <v>0.04656753718650624</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05660219027252979</v>
+        <v>0.05845904739924898</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06597284390202589</v>
+        <v>0.06484455187907143</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1001462158305207</v>
+        <v>0.09826518923237833</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09938276665639138</v>
+        <v>0.09987163559987955</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09270013700310811</v>
+        <v>0.09322336715038275</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05352569268740127</v>
+        <v>0.05194866293514985</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08359345125444261</v>
+        <v>0.08265029292641725</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.07231187160333077</v>
+        <v>0.07084321734178929</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06832012159291609</v>
+        <v>0.06970464425909015</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05390901532348263</v>
+        <v>0.05407452183952566</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0829823757668221</v>
+        <v>0.0839828828601473</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07659529110062317</v>
+        <v>0.07784216636850273</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07613364008236195</v>
+        <v>0.07722387872203995</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.08283847312237411</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08688110162160508</v>
+        <v>0.08688110162160509</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.0595316362618962</v>
@@ -1241,7 +1241,7 @@
         <v>0.08040209268048785</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.080188924361732</v>
+        <v>0.08018892436173197</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04658430457423435</v>
+        <v>0.04551205320629912</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06389062567333734</v>
+        <v>0.06482767520622096</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07430728353872121</v>
+        <v>0.07423342935372547</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07896854045756518</v>
+        <v>0.07885861676329999</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05147802687106769</v>
+        <v>0.05163858991054611</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0750502120627595</v>
+        <v>0.07598538268684722</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06879191477399187</v>
+        <v>0.0689127905266034</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06759956213106359</v>
+        <v>0.06768202686747034</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05102464540890241</v>
+        <v>0.05150435800074115</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07219586629857269</v>
+        <v>0.07226041123839337</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07406864422414126</v>
+        <v>0.07418556418757542</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07486036909649381</v>
+        <v>0.07521483128454062</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06160587407788685</v>
+        <v>0.06163470018246037</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08181107326359008</v>
+        <v>0.08260229042090349</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09270719245538558</v>
+        <v>0.09428610194040421</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09559285930629489</v>
+        <v>0.09736647783247696</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06799660367596981</v>
+        <v>0.06757351254177249</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.0937043542140264</v>
+        <v>0.09497455574555085</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.08809876575131209</v>
+        <v>0.08797013106491797</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08006454666002842</v>
+        <v>0.08065407133696757</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06248576922497338</v>
+        <v>0.0622961484599287</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.08576037686610015</v>
+        <v>0.08578909540321231</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.08746915997856061</v>
+        <v>0.08754285101793635</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08544957424032179</v>
+        <v>0.08566673053465886</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>32517</v>
+        <v>32065</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>61022</v>
+        <v>58764</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>90640</v>
+        <v>90666</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>33338</v>
+        <v>33083</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>60159</v>
+        <v>59294</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>92630</v>
+        <v>94025</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>91291</v>
+        <v>93567</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>55211</v>
+        <v>54986</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>101724</v>
+        <v>99398</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>163503</v>
+        <v>161758</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>190157</v>
+        <v>193561</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>94244</v>
+        <v>95302</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>57541</v>
+        <v>56195</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>95242</v>
+        <v>94164</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>130986</v>
+        <v>129743</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>58289</v>
+        <v>57575</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>92565</v>
+        <v>93658</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>133365</v>
+        <v>133663</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>134104</v>
+        <v>138608</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>78732</v>
+        <v>80000</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>144770</v>
+        <v>141164</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>215500</v>
+        <v>213862</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>252149</v>
+        <v>251818</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>128176</v>
+        <v>129195</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>51524</v>
+        <v>51939</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>49714</v>
+        <v>48666</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>63008</v>
+        <v>63399</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>68633</v>
+        <v>70229</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>45388</v>
+        <v>45048</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>85219</v>
+        <v>84074</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>62925</v>
+        <v>62536</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>82464</v>
+        <v>82146</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>103385</v>
+        <v>103098</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>143232</v>
+        <v>140704</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>134589</v>
+        <v>136437</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>157363</v>
+        <v>159077</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>81987</v>
+        <v>81788</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>83507</v>
+        <v>82711</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>96099</v>
+        <v>98690</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>100478</v>
+        <v>100373</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>76804</v>
+        <v>74686</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>122425</v>
+        <v>122609</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>98933</v>
+        <v>99465</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>109422</v>
+        <v>109008</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>145672</v>
+        <v>146728</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>195923</v>
+        <v>195544</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>183175</v>
+        <v>185618</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>199830</v>
+        <v>200880</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>33564</v>
+        <v>35174</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>55781</v>
+        <v>55825</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>41015</v>
+        <v>41449</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>83979</v>
+        <v>83718</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>38230</v>
+        <v>38585</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>46213</v>
+        <v>44439</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>46613</v>
+        <v>47045</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>50602</v>
+        <v>50915</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>78679</v>
+        <v>77819</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>108060</v>
+        <v>110589</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>95481</v>
+        <v>92642</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>139804</v>
+        <v>140676</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>61042</v>
+        <v>59751</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>89760</v>
+        <v>89934</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>69761</v>
+        <v>68997</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>118021</v>
+        <v>118956</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>68427</v>
+        <v>66309</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>77144</v>
+        <v>73492</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>78383</v>
+        <v>78876</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>73019</v>
+        <v>73483</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>117502</v>
+        <v>118117</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>153936</v>
+        <v>156076</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>138804</v>
+        <v>136509</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>180644</v>
+        <v>182601</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>12438</v>
+        <v>12201</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>25368</v>
+        <v>24806</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>27436</v>
+        <v>27569</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>60563</v>
+        <v>61439</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5286</v>
+        <v>5275</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>17712</v>
+        <v>16472</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>14365</v>
+        <v>13776</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>40869</v>
+        <v>41568</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>20477</v>
+        <v>20676</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>47346</v>
+        <v>48886</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>45112</v>
+        <v>46400</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>106671</v>
+        <v>110170</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>29503</v>
+        <v>28998</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>50376</v>
+        <v>49430</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>50357</v>
+        <v>50605</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>90469</v>
+        <v>90979</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18261</v>
+        <v>17723</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>37690</v>
+        <v>37264</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>35411</v>
+        <v>34692</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>62079</v>
+        <v>63337</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>42500</v>
+        <v>42630</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>79156</v>
+        <v>80111</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>76319</v>
+        <v>77562</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>143479</v>
+        <v>145534</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>150458</v>
+        <v>146995</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>217455</v>
+        <v>220644</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>250214</v>
+        <v>249965</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>274912</v>
+        <v>274529</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>170648</v>
+        <v>171180</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>265041</v>
+        <v>268344</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>242615</v>
+        <v>243041</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>249788</v>
+        <v>250093</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>333945</v>
+        <v>337085</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>500683</v>
+        <v>501131</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>510635</v>
+        <v>511441</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>537228</v>
+        <v>539771</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>198975</v>
+        <v>199068</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>278448</v>
+        <v>281141</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>312171</v>
+        <v>317488</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>332786</v>
+        <v>338960</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>225407</v>
+        <v>224004</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>330919</v>
+        <v>335405</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>310706</v>
+        <v>310252</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>295847</v>
+        <v>298026</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>408956</v>
+        <v>407715</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>594754</v>
+        <v>594953</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>603019</v>
+        <v>603527</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>613220</v>
+        <v>614778</v>
       </c>
     </row>
     <row r="24">
